--- a/StructureDefinition-C4BB-Coverage.xlsx
+++ b/StructureDefinition-C4BB-Coverage.xlsx
@@ -3664,7 +3664,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
         <v>182</v>
       </c>
@@ -3680,7 +3680,7 @@
         <v>51</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>42</v>

--- a/StructureDefinition-C4BB-Coverage.xlsx
+++ b/StructureDefinition-C4BB-Coverage.xlsx
@@ -291,7 +291,7 @@
 </t>
   </si>
   <si>
-    <t>When the resource version last changed</t>
+    <t>Defines the date the coverage that was effective as of the date of service or admission was created or updated, whichever is later (163)</t>
   </si>
   <si>
     <t>When the resource last changed - e.g. when the version changed.</t>
@@ -591,7 +591,7 @@
 </t>
   </si>
   <si>
-    <t>Identifies if the coverage is PPO, HMO, POS, etc.   (3)</t>
+    <t>Identifies if the coverage is PPO, HMO, POS, etc. (3)</t>
   </si>
   <si>
     <t>The type of coverage: social program, medical plan, accident coverage (workers compensation, auto), group health or payment by an individual or organization.</t>
@@ -738,7 +738,7 @@
 </t>
   </si>
   <si>
-    <t>Date that the contract was terminated or coverage changed (75)</t>
+    <t>Date that the contract became effective (74) and Date that the contract was terminated or coverage changed (75)</t>
   </si>
   <si>
     <t>Time period during which the coverage is in force. A missing start date indicates the start date isn't known, a missing end date means the coverage is continuing to be in force.</t>
@@ -1281,7 +1281,7 @@
     <col min="8" max="8" width="13.2578125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="14.44140625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="72.27734375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="126.57421875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>

--- a/StructureDefinition-C4BB-Coverage.xlsx
+++ b/StructureDefinition-C4BB-Coverage.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2463" uniqueCount="351">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2469" uniqueCount="355">
   <si>
     <t>Path</t>
   </si>
@@ -291,13 +291,13 @@
 </t>
   </si>
   <si>
-    <t>Defines the date the coverage that was effective as of the date of service or admission was created or updated, whichever is later (163)</t>
+    <t>When the resource version last changed</t>
   </si>
   <si>
     <t>When the resource last changed - e.g. when the version changed.</t>
   </si>
   <si>
-    <t>This value is always populated except when the resource is first being created. The server / resource manager sets this value; what a client provides is irrelevant. This is equivalent to the HTTP Last-Modified and SHOULD have the same value on a [read](http://hl7.org/fhir/R4/http.html#read) interaction.</t>
+    <t>Defines the date the coverage that was effective as of the date of service or admission (163). The Coverage Reference Resource SHALL be returned with data that was effective as of the date of service or admission of the claim</t>
   </si>
   <si>
     <t>Meta.lastUpdated</t>
@@ -336,7 +336,7 @@
     <t>A list of profiles (references to [StructureDefinition](http://hl7.org/fhir/R4/structuredefinition.html#) resources) that this resource claims to conform to. The URL is a reference to [StructureDefinition.url](http://hl7.org/fhir/R4/structuredefinition-definitions.html#StructureDefinition.url).</t>
   </si>
   <si>
-    <t>It is up to the server and/or other infrastructure of policy to determine whether/how these claims are verified and/or updated over time.  The list of profile URLs is a set.</t>
+    <t>CPCDS data element (190)</t>
   </si>
   <si>
     <t>Meta.profile</t>
@@ -554,13 +554,13 @@
     <t>Coverage.status</t>
   </si>
   <si>
+    <t>active | cancelled | draft | entered-in-error</t>
+  </si>
+  <si>
+    <t>The status of the resource instance.</t>
+  </si>
+  <si>
     <t>Identfies the status of the coverage information (default: active) (133)</t>
-  </si>
-  <si>
-    <t>The status of the resource instance.</t>
-  </si>
-  <si>
-    <t>This element is labeled as a modifier because the status contains the code entered-in-error that marks the coverage as not currently valid.</t>
   </si>
   <si>
     <t>Need to track the status of the resource as 'draft' resources may undergo further edits while 'active' resources are immutable and may only have their status changed to 'cancelled'.</t>
@@ -591,10 +591,13 @@
 </t>
   </si>
   <si>
+    <t>Coverage category such as medical or accident</t>
+  </si>
+  <si>
+    <t>The type of coverage: social program, medical plan, accident coverage (workers compensation, auto), group health or payment by an individual or organization.</t>
+  </si>
+  <si>
     <t>Identifies if the coverage is PPO, HMO, POS, etc. (3)</t>
-  </si>
-  <si>
-    <t>The type of coverage: social program, medical plan, accident coverage (workers compensation, auto), group health or payment by an individual or organization.</t>
   </si>
   <si>
     <t>The order of application of coverages is dependent on the types of coverage.</t>
@@ -665,12 +668,15 @@
     <t>Coverage.subscriberId</t>
   </si>
   <si>
-    <t>The identifier assigned by the Payer on the subscriber's ID card. (132)</t>
+    <t>ID assigned to the subscriber</t>
   </si>
   <si>
     <t>The insurer assigned ID for the Subscriber.</t>
   </si>
   <si>
+    <t>The identifier assigned by the Payer on the subscriber's ID card (132)</t>
+  </si>
+  <si>
     <t>The insurer requires this identifier on correspondance and claims (digital and otherwise).</t>
   </si>
   <si>
@@ -683,6 +689,9 @@
     <t>The party who benefits from the insurance coverage; the patient when products and/or services are provided.</t>
   </si>
   <si>
+    <t>Identifier for a member assigned by the Payer.  If members receive ID cards, that is the identifier that should be provided (1).  This is the party who receives treatment for which the costs are reimbursed under the coverage. alternate path:  EOB.patient(Patient).identifier</t>
+  </si>
+  <si>
     <t>This is the party who receives treatment for which the costs are reimbursed under the coverage.</t>
   </si>
   <si>
@@ -713,13 +722,13 @@
     <t>Coverage.relationship</t>
   </si>
   <si>
+    <t>Beneficiary relationship to the subscriber</t>
+  </si>
+  <si>
+    <t>The relationship of beneficiary (patient) to the subscriber.</t>
+  </si>
+  <si>
     <t>Relationship of the member to the person insured (subscriber). (72)</t>
-  </si>
-  <si>
-    <t>The relationship of beneficiary (patient) to the subscriber.</t>
-  </si>
-  <si>
-    <t>Typically, an individual uses policies which are theirs (relationship='self') before policies owned by others.</t>
   </si>
   <si>
     <t>To determine relationship between the patient and the subscriber to determine coordination of benefits.</t>
@@ -738,10 +747,13 @@
 </t>
   </si>
   <si>
+    <t>Coverage start and end dates</t>
+  </si>
+  <si>
+    <t>Time period during which the coverage is in force. A missing start date indicates the start date isn't known, a missing end date means the coverage is continuing to be in force.</t>
+  </si>
+  <si>
     <t>Date that the contract became effective (74) and Date that the contract was terminated or coverage changed (75)</t>
-  </si>
-  <si>
-    <t>Time period during which the coverage is in force. A missing start date indicates the start date isn't known, a missing end date means the coverage is continuing to be in force.</t>
   </si>
   <si>
     <t>Some insurers require the submission of the coverage term.</t>
@@ -766,14 +778,13 @@
 </t>
   </si>
   <si>
+    <t>Issuer of the policy</t>
+  </si>
+  <si>
+    <t>The program or plan underwriter or payor including both insurance and non-insurance agreements, such as patient-pay agreements.</t>
+  </si>
+  <si>
     <t>Issuer of the Policy (2)</t>
-  </si>
-  <si>
-    <t>The program or plan underwriter or payor including both insurance and non-insurance agreements, such as patient-pay agreements.</t>
-  </si>
-  <si>
-    <t>May provide multiple identifiers such as insurance company identifier or business identifier (BIN number).
-For selfpay it may provide multiple paying persons and/or organizations.</t>
   </si>
   <si>
     <t>Need to identify the issuer to target for claim processing and for coordination of benefit processing.</t>
@@ -1281,7 +1292,7 @@
     <col min="8" max="8" width="13.2578125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="14.44140625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="126.57421875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="52.78125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1673,7 +1684,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="4" hidden="true">
+    <row r="4">
       <c r="A4" t="s" s="2">
         <v>58</v>
       </c>
@@ -1683,13 +1694,13 @@
       </c>
       <c r="D4" s="2"/>
       <c r="E4" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="F4" t="s" s="2">
         <v>51</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="H4" t="s" s="2">
         <v>42</v>
@@ -3697,9 +3708,11 @@
       <c r="L21" t="s" s="2">
         <v>185</v>
       </c>
-      <c r="M21" s="2"/>
+      <c r="M21" t="s" s="2">
+        <v>186</v>
+      </c>
       <c r="N21" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="O21" t="s" s="2">
         <v>42</v>
@@ -3727,10 +3740,10 @@
         <v>131</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Z21" t="s" s="2">
         <v>42</v>
@@ -3769,13 +3782,13 @@
         <v>42</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AO21" t="s" s="2">
         <v>42</v>
@@ -3783,7 +3796,7 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3806,19 +3819,19 @@
         <v>52</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="O22" t="s" s="2">
         <v>42</v>
@@ -3867,7 +3880,7 @@
         <v>42</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>43</v>
@@ -3888,21 +3901,21 @@
         <v>42</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AO22" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -3925,19 +3938,19 @@
         <v>52</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="O23" t="s" s="2">
         <v>42</v>
@@ -3986,7 +3999,7 @@
         <v>42</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>43</v>
@@ -4007,21 +4020,21 @@
         <v>42</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AO23" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4047,14 +4060,16 @@
         <v>53</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="M24" s="2"/>
+        <v>210</v>
+      </c>
+      <c r="M24" t="s" s="2">
+        <v>211</v>
+      </c>
       <c r="N24" t="s" s="2">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="O24" t="s" s="2">
         <v>42</v>
@@ -4103,7 +4118,7 @@
         <v>42</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>43</v>
@@ -4124,21 +4139,21 @@
         <v>42</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AO24" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4161,17 +4176,19 @@
         <v>52</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="M25" s="2"/>
+        <v>215</v>
+      </c>
+      <c r="M25" t="s" s="2">
+        <v>216</v>
+      </c>
       <c r="N25" t="s" s="2">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="O25" t="s" s="2">
         <v>42</v>
@@ -4220,7 +4237,7 @@
         <v>42</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>51</v>
@@ -4235,27 +4252,27 @@
         <v>63</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AO25" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4281,16 +4298,16 @@
         <v>53</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="O26" t="s" s="2">
         <v>42</v>
@@ -4339,7 +4356,7 @@
         <v>42</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>43</v>
@@ -4363,10 +4380,10 @@
         <v>42</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="AO26" t="s" s="2">
         <v>42</v>
@@ -4374,7 +4391,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4400,16 +4417,16 @@
         <v>183</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="O27" t="s" s="2">
         <v>42</v>
@@ -4438,7 +4455,7 @@
       </c>
       <c r="X27" s="2"/>
       <c r="Y27" t="s" s="2">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="Z27" t="s" s="2">
         <v>42</v>
@@ -4456,7 +4473,7 @@
         <v>42</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>43</v>
@@ -4480,7 +4497,7 @@
         <v>42</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>42</v>
@@ -4491,7 +4508,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4514,17 +4531,19 @@
         <v>52</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="M28" s="2"/>
+        <v>236</v>
+      </c>
+      <c r="M28" t="s" s="2">
+        <v>237</v>
+      </c>
       <c r="N28" t="s" s="2">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="O28" t="s" s="2">
         <v>42</v>
@@ -4573,7 +4592,7 @@
         <v>42</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>43</v>
@@ -4588,19 +4607,19 @@
         <v>63</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="AO28" t="s" s="2">
         <v>42</v>
@@ -4608,7 +4627,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4631,19 +4650,19 @@
         <v>52</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="O29" t="s" s="2">
         <v>42</v>
@@ -4692,7 +4711,7 @@
         <v>42</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>51</v>
@@ -4713,21 +4732,21 @@
         <v>42</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="AO29" t="s" s="2">
-        <v>248</v>
+        <v>252</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4735,7 +4754,7 @@
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="F30" t="s" s="2">
         <v>44</v>
@@ -4750,19 +4769,19 @@
         <v>42</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="O30" t="s" s="2">
         <v>42</v>
@@ -4799,10 +4818,10 @@
         <v>42</v>
       </c>
       <c r="AA30" t="s" s="2">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="AC30" t="s" s="2">
         <v>42</v>
@@ -4811,7 +4830,7 @@
         <v>77</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>43</v>
@@ -4846,7 +4865,7 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -4961,7 +4980,7 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5078,11 +5097,11 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
@@ -5104,10 +5123,10 @@
         <v>71</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="M33" t="s" s="2">
         <v>74</v>
@@ -5162,7 +5181,7 @@
         <v>42</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>43</v>
@@ -5197,7 +5216,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5223,14 +5242,14 @@
         <v>183</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" t="s" s="2">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="O34" t="s" s="2">
         <v>42</v>
@@ -5258,28 +5277,28 @@
         <v>109</v>
       </c>
       <c r="X34" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="Y34" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="Z34" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AA34" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AB34" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AC34" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AD34" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AE34" t="s" s="2">
         <v>269</v>
-      </c>
-      <c r="Y34" t="s" s="2">
-        <v>270</v>
-      </c>
-      <c r="Z34" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA34" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB34" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AC34" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD34" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE34" t="s" s="2">
-        <v>265</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>51</v>
@@ -5314,7 +5333,7 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5340,16 +5359,16 @@
         <v>53</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="O35" t="s" s="2">
         <v>42</v>
@@ -5398,7 +5417,7 @@
         <v>42</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>51</v>
@@ -5422,18 +5441,18 @@
         <v>42</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="AO35" t="s" s="2">
-        <v>278</v>
+        <v>282</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5459,14 +5478,14 @@
         <v>53</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" t="s" s="2">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="O36" t="s" s="2">
         <v>42</v>
@@ -5515,7 +5534,7 @@
         <v>42</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>43</v>
@@ -5539,21 +5558,21 @@
         <v>42</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="AO36" t="s" s="2">
-        <v>278</v>
+        <v>282</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="C37" t="s" s="2">
         <v>42</v>
@@ -5575,19 +5594,19 @@
         <v>42</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="O37" t="s" s="2">
         <v>42</v>
@@ -5636,7 +5655,7 @@
         <v>42</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>43</v>
@@ -5671,7 +5690,7 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5786,7 +5805,7 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -5903,11 +5922,11 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
@@ -5929,10 +5948,10 @@
         <v>71</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="M40" t="s" s="2">
         <v>74</v>
@@ -5987,7 +6006,7 @@
         <v>42</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>43</v>
@@ -6022,7 +6041,7 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6048,14 +6067,14 @@
         <v>183</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" t="s" s="2">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="O41" t="s" s="2">
         <v>42</v>
@@ -6065,7 +6084,7 @@
         <v>42</v>
       </c>
       <c r="R41" t="s" s="2">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="S41" t="s" s="2">
         <v>42</v>
@@ -6083,28 +6102,28 @@
         <v>109</v>
       </c>
       <c r="X41" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="Y41" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="Z41" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AA41" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AB41" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AC41" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AD41" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AE41" t="s" s="2">
         <v>269</v>
-      </c>
-      <c r="Y41" t="s" s="2">
-        <v>270</v>
-      </c>
-      <c r="Z41" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA41" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB41" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AC41" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD41" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE41" t="s" s="2">
-        <v>265</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>51</v>
@@ -6139,7 +6158,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6165,16 +6184,16 @@
         <v>53</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>274</v>
+        <v>289</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="O42" t="s" s="2">
         <v>42</v>
@@ -6223,7 +6242,7 @@
         <v>42</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>51</v>
@@ -6247,18 +6266,18 @@
         <v>42</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="AO42" t="s" s="2">
-        <v>278</v>
+        <v>282</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6284,14 +6303,16 @@
         <v>53</v>
       </c>
       <c r="K43" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="L43" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="M43" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="N43" t="s" s="2">
         <v>286</v>
-      </c>
-      <c r="L43" t="s" s="2">
-        <v>281</v>
-      </c>
-      <c r="M43" s="2"/>
-      <c r="N43" t="s" s="2">
-        <v>282</v>
       </c>
       <c r="O43" t="s" s="2">
         <v>42</v>
@@ -6340,7 +6361,7 @@
         <v>42</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>43</v>
@@ -6364,21 +6385,21 @@
         <v>42</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="AO43" t="s" s="2">
-        <v>278</v>
+        <v>282</v>
       </c>
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="C44" t="s" s="2">
         <v>42</v>
@@ -6400,19 +6421,19 @@
         <v>42</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="O44" t="s" s="2">
         <v>42</v>
@@ -6461,7 +6482,7 @@
         <v>42</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>43</v>
@@ -6496,7 +6517,7 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6611,7 +6632,7 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6728,11 +6749,11 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
@@ -6754,10 +6775,10 @@
         <v>71</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="M47" t="s" s="2">
         <v>74</v>
@@ -6812,7 +6833,7 @@
         <v>42</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>43</v>
@@ -6847,7 +6868,7 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -6873,14 +6894,14 @@
         <v>183</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="M48" s="2"/>
       <c r="N48" t="s" s="2">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="O48" t="s" s="2">
         <v>42</v>
@@ -6890,7 +6911,7 @@
         <v>42</v>
       </c>
       <c r="R48" t="s" s="2">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="S48" t="s" s="2">
         <v>42</v>
@@ -6908,28 +6929,28 @@
         <v>109</v>
       </c>
       <c r="X48" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="Y48" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="Z48" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AA48" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AB48" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AC48" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AD48" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AE48" t="s" s="2">
         <v>269</v>
-      </c>
-      <c r="Y48" t="s" s="2">
-        <v>270</v>
-      </c>
-      <c r="Z48" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA48" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB48" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AC48" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD48" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE48" t="s" s="2">
-        <v>265</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>51</v>
@@ -6964,7 +6985,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -6990,16 +7011,16 @@
         <v>53</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>289</v>
+        <v>276</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>274</v>
+        <v>293</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="O49" t="s" s="2">
         <v>42</v>
@@ -7048,7 +7069,7 @@
         <v>42</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>51</v>
@@ -7072,18 +7093,18 @@
         <v>42</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="AO49" t="s" s="2">
-        <v>278</v>
+        <v>282</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7109,14 +7130,16 @@
         <v>53</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>281</v>
-      </c>
-      <c r="M50" s="2"/>
+        <v>285</v>
+      </c>
+      <c r="M50" t="s" s="2">
+        <v>294</v>
+      </c>
       <c r="N50" t="s" s="2">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="O50" t="s" s="2">
         <v>42</v>
@@ -7165,7 +7188,7 @@
         <v>42</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>43</v>
@@ -7189,18 +7212,18 @@
         <v>42</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="AO50" t="s" s="2">
-        <v>278</v>
+        <v>282</v>
       </c>
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7223,17 +7246,17 @@
         <v>52</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="M51" s="2"/>
       <c r="N51" t="s" s="2">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="O51" t="s" s="2">
         <v>42</v>
@@ -7282,7 +7305,7 @@
         <v>42</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>43</v>
@@ -7309,7 +7332,7 @@
         <v>42</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="AO51" t="s" s="2">
         <v>42</v>
@@ -7317,7 +7340,7 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7343,14 +7366,14 @@
         <v>53</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="M52" s="2"/>
       <c r="N52" t="s" s="2">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="O52" t="s" s="2">
         <v>42</v>
@@ -7399,7 +7422,7 @@
         <v>42</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>43</v>
@@ -7423,7 +7446,7 @@
         <v>42</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>42</v>
@@ -7434,11 +7457,11 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
@@ -7457,19 +7480,19 @@
         <v>42</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="O53" t="s" s="2">
         <v>42</v>
@@ -7518,7 +7541,7 @@
         <v>42</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>43</v>
@@ -7553,7 +7576,7 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7668,7 +7691,7 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -7785,11 +7808,11 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
@@ -7811,10 +7834,10 @@
         <v>71</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="M56" t="s" s="2">
         <v>74</v>
@@ -7869,7 +7892,7 @@
         <v>42</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>43</v>
@@ -7904,7 +7927,7 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -7930,16 +7953,16 @@
         <v>183</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="O57" t="s" s="2">
         <v>42</v>
@@ -7967,10 +7990,10 @@
         <v>109</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="Z57" t="s" s="2">
         <v>42</v>
@@ -7988,7 +8011,7 @@
         <v>42</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>43</v>
@@ -8023,7 +8046,7 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8046,19 +8069,19 @@
         <v>52</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="O58" t="s" s="2">
         <v>42</v>
@@ -8107,7 +8130,7 @@
         <v>42</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>51</v>
@@ -8131,18 +8154,18 @@
         <v>42</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="AO58" t="s" s="2">
-        <v>278</v>
+        <v>282</v>
       </c>
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8165,17 +8188,17 @@
         <v>42</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="M59" s="2"/>
       <c r="N59" t="s" s="2">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="O59" t="s" s="2">
         <v>42</v>
@@ -8224,7 +8247,7 @@
         <v>42</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>43</v>
@@ -8259,7 +8282,7 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8374,7 +8397,7 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8491,11 +8514,11 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
@@ -8517,10 +8540,10 @@
         <v>71</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="M62" t="s" s="2">
         <v>74</v>
@@ -8575,7 +8598,7 @@
         <v>42</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>43</v>
@@ -8610,7 +8633,7 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -8636,14 +8659,14 @@
         <v>183</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="M63" s="2"/>
       <c r="N63" t="s" s="2">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="O63" t="s" s="2">
         <v>42</v>
@@ -8671,28 +8694,28 @@
         <v>117</v>
       </c>
       <c r="X63" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="Y63" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="Z63" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AA63" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AB63" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AC63" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AD63" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AE63" t="s" s="2">
         <v>333</v>
-      </c>
-      <c r="Y63" t="s" s="2">
-        <v>334</v>
-      </c>
-      <c r="Z63" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA63" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB63" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AC63" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD63" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE63" t="s" s="2">
-        <v>329</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>51</v>
@@ -8727,7 +8750,7 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -8750,17 +8773,17 @@
         <v>52</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="M64" s="2"/>
       <c r="N64" t="s" s="2">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="O64" t="s" s="2">
         <v>42</v>
@@ -8809,7 +8832,7 @@
         <v>42</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>43</v>
@@ -8844,7 +8867,7 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -8867,19 +8890,19 @@
         <v>42</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="O65" t="s" s="2">
         <v>42</v>
@@ -8928,7 +8951,7 @@
         <v>42</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>43</v>
@@ -8963,7 +8986,7 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -8986,17 +9009,17 @@
         <v>42</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="M66" s="2"/>
       <c r="N66" t="s" s="2">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="O66" t="s" s="2">
         <v>42</v>
@@ -9045,7 +9068,7 @@
         <v>42</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>43</v>
@@ -9069,13 +9092,13 @@
         <v>42</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="AO66" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
   </sheetData>

--- a/StructureDefinition-C4BB-Coverage.xlsx
+++ b/StructureDefinition-C4BB-Coverage.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2469" uniqueCount="355">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2469" uniqueCount="354">
   <si>
     <t>Path</t>
   </si>
@@ -803,9 +803,6 @@
   </si>
   <si>
     <t>Coverage.class</t>
-  </si>
-  <si>
-    <t>2</t>
   </si>
   <si>
     <t xml:space="preserve">BackboneElement
@@ -4754,7 +4751,7 @@
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
-        <v>254</v>
+        <v>43</v>
       </c>
       <c r="F30" t="s" s="2">
         <v>44</v>
@@ -4769,19 +4766,19 @@
         <v>42</v>
       </c>
       <c r="J30" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="K30" t="s" s="2">
         <v>255</v>
       </c>
-      <c r="K30" t="s" s="2">
+      <c r="L30" t="s" s="2">
         <v>256</v>
       </c>
-      <c r="L30" t="s" s="2">
+      <c r="M30" t="s" s="2">
         <v>257</v>
       </c>
-      <c r="M30" t="s" s="2">
+      <c r="N30" t="s" s="2">
         <v>258</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>259</v>
       </c>
       <c r="O30" t="s" s="2">
         <v>42</v>
@@ -4818,10 +4815,10 @@
         <v>42</v>
       </c>
       <c r="AA30" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="AB30" t="s" s="2">
         <v>260</v>
-      </c>
-      <c r="AB30" t="s" s="2">
-        <v>261</v>
       </c>
       <c r="AC30" t="s" s="2">
         <v>42</v>
@@ -4865,7 +4862,7 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -4980,7 +4977,7 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5097,11 +5094,11 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
@@ -5123,10 +5120,10 @@
         <v>71</v>
       </c>
       <c r="K33" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="L33" t="s" s="2">
         <v>266</v>
-      </c>
-      <c r="L33" t="s" s="2">
-        <v>267</v>
       </c>
       <c r="M33" t="s" s="2">
         <v>74</v>
@@ -5181,7 +5178,7 @@
         <v>42</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>43</v>
@@ -5216,7 +5213,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5242,14 +5239,14 @@
         <v>183</v>
       </c>
       <c r="K34" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="L34" t="s" s="2">
         <v>270</v>
-      </c>
-      <c r="L34" t="s" s="2">
-        <v>271</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" t="s" s="2">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="O34" t="s" s="2">
         <v>42</v>
@@ -5277,11 +5274,11 @@
         <v>109</v>
       </c>
       <c r="X34" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="Y34" t="s" s="2">
         <v>273</v>
       </c>
-      <c r="Y34" t="s" s="2">
-        <v>274</v>
-      </c>
       <c r="Z34" t="s" s="2">
         <v>42</v>
       </c>
@@ -5298,7 +5295,7 @@
         <v>42</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>51</v>
@@ -5333,7 +5330,7 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5359,16 +5356,16 @@
         <v>53</v>
       </c>
       <c r="K35" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="L35" t="s" s="2">
         <v>276</v>
       </c>
-      <c r="L35" t="s" s="2">
+      <c r="M35" t="s" s="2">
         <v>277</v>
       </c>
-      <c r="M35" t="s" s="2">
+      <c r="N35" t="s" s="2">
         <v>278</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>279</v>
       </c>
       <c r="O35" t="s" s="2">
         <v>42</v>
@@ -5417,7 +5414,7 @@
         <v>42</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>51</v>
@@ -5441,18 +5438,18 @@
         <v>42</v>
       </c>
       <c r="AM35" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="AN35" t="s" s="2">
         <v>280</v>
       </c>
-      <c r="AN35" t="s" s="2">
+      <c r="AO35" t="s" s="2">
         <v>281</v>
-      </c>
-      <c r="AO35" t="s" s="2">
-        <v>282</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5478,14 +5475,14 @@
         <v>53</v>
       </c>
       <c r="K36" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="L36" t="s" s="2">
         <v>284</v>
-      </c>
-      <c r="L36" t="s" s="2">
-        <v>285</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" t="s" s="2">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="O36" t="s" s="2">
         <v>42</v>
@@ -5534,7 +5531,7 @@
         <v>42</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>43</v>
@@ -5558,13 +5555,13 @@
         <v>42</v>
       </c>
       <c r="AM36" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="AN36" t="s" s="2">
         <v>280</v>
       </c>
-      <c r="AN36" t="s" s="2">
+      <c r="AO36" t="s" s="2">
         <v>281</v>
-      </c>
-      <c r="AO36" t="s" s="2">
-        <v>282</v>
       </c>
     </row>
     <row r="37" hidden="true">
@@ -5572,14 +5569,14 @@
         <v>253</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C37" t="s" s="2">
         <v>42</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="F37" t="s" s="2">
         <v>51</v>
@@ -5594,19 +5591,19 @@
         <v>42</v>
       </c>
       <c r="J37" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="K37" t="s" s="2">
         <v>255</v>
       </c>
-      <c r="K37" t="s" s="2">
+      <c r="L37" t="s" s="2">
         <v>256</v>
       </c>
-      <c r="L37" t="s" s="2">
+      <c r="M37" t="s" s="2">
         <v>257</v>
       </c>
-      <c r="M37" t="s" s="2">
+      <c r="N37" t="s" s="2">
         <v>258</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>259</v>
       </c>
       <c r="O37" t="s" s="2">
         <v>42</v>
@@ -5690,7 +5687,7 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5805,7 +5802,7 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -5922,11 +5919,11 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
@@ -5948,10 +5945,10 @@
         <v>71</v>
       </c>
       <c r="K40" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="L40" t="s" s="2">
         <v>266</v>
-      </c>
-      <c r="L40" t="s" s="2">
-        <v>267</v>
       </c>
       <c r="M40" t="s" s="2">
         <v>74</v>
@@ -6006,7 +6003,7 @@
         <v>42</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>43</v>
@@ -6041,7 +6038,7 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6067,14 +6064,14 @@
         <v>183</v>
       </c>
       <c r="K41" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="L41" t="s" s="2">
         <v>270</v>
-      </c>
-      <c r="L41" t="s" s="2">
-        <v>271</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" t="s" s="2">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="O41" t="s" s="2">
         <v>42</v>
@@ -6084,7 +6081,7 @@
         <v>42</v>
       </c>
       <c r="R41" t="s" s="2">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="S41" t="s" s="2">
         <v>42</v>
@@ -6102,11 +6099,11 @@
         <v>109</v>
       </c>
       <c r="X41" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="Y41" t="s" s="2">
         <v>273</v>
       </c>
-      <c r="Y41" t="s" s="2">
-        <v>274</v>
-      </c>
       <c r="Z41" t="s" s="2">
         <v>42</v>
       </c>
@@ -6123,7 +6120,7 @@
         <v>42</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>51</v>
@@ -6158,7 +6155,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6184,16 +6181,16 @@
         <v>53</v>
       </c>
       <c r="K42" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="L42" t="s" s="2">
         <v>276</v>
       </c>
-      <c r="L42" t="s" s="2">
-        <v>277</v>
-      </c>
       <c r="M42" t="s" s="2">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="O42" t="s" s="2">
         <v>42</v>
@@ -6242,7 +6239,7 @@
         <v>42</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>51</v>
@@ -6266,18 +6263,18 @@
         <v>42</v>
       </c>
       <c r="AM42" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="AN42" t="s" s="2">
         <v>280</v>
       </c>
-      <c r="AN42" t="s" s="2">
+      <c r="AO42" t="s" s="2">
         <v>281</v>
-      </c>
-      <c r="AO42" t="s" s="2">
-        <v>282</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6303,16 +6300,16 @@
         <v>53</v>
       </c>
       <c r="K43" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="L43" t="s" s="2">
         <v>284</v>
       </c>
-      <c r="L43" t="s" s="2">
+      <c r="M43" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="N43" t="s" s="2">
         <v>285</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>290</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>286</v>
       </c>
       <c r="O43" t="s" s="2">
         <v>42</v>
@@ -6361,7 +6358,7 @@
         <v>42</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>43</v>
@@ -6385,13 +6382,13 @@
         <v>42</v>
       </c>
       <c r="AM43" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="AN43" t="s" s="2">
         <v>280</v>
       </c>
-      <c r="AN43" t="s" s="2">
+      <c r="AO43" t="s" s="2">
         <v>281</v>
-      </c>
-      <c r="AO43" t="s" s="2">
-        <v>282</v>
       </c>
     </row>
     <row r="44" hidden="true">
@@ -6399,14 +6396,14 @@
         <v>253</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C44" t="s" s="2">
         <v>42</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="F44" t="s" s="2">
         <v>51</v>
@@ -6421,19 +6418,19 @@
         <v>42</v>
       </c>
       <c r="J44" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="K44" t="s" s="2">
         <v>255</v>
       </c>
-      <c r="K44" t="s" s="2">
+      <c r="L44" t="s" s="2">
         <v>256</v>
       </c>
-      <c r="L44" t="s" s="2">
+      <c r="M44" t="s" s="2">
         <v>257</v>
       </c>
-      <c r="M44" t="s" s="2">
+      <c r="N44" t="s" s="2">
         <v>258</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>259</v>
       </c>
       <c r="O44" t="s" s="2">
         <v>42</v>
@@ -6517,7 +6514,7 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6632,7 +6629,7 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6749,11 +6746,11 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
@@ -6775,10 +6772,10 @@
         <v>71</v>
       </c>
       <c r="K47" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="L47" t="s" s="2">
         <v>266</v>
-      </c>
-      <c r="L47" t="s" s="2">
-        <v>267</v>
       </c>
       <c r="M47" t="s" s="2">
         <v>74</v>
@@ -6833,7 +6830,7 @@
         <v>42</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>43</v>
@@ -6868,7 +6865,7 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -6894,14 +6891,14 @@
         <v>183</v>
       </c>
       <c r="K48" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="L48" t="s" s="2">
         <v>270</v>
-      </c>
-      <c r="L48" t="s" s="2">
-        <v>271</v>
       </c>
       <c r="M48" s="2"/>
       <c r="N48" t="s" s="2">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="O48" t="s" s="2">
         <v>42</v>
@@ -6911,7 +6908,7 @@
         <v>42</v>
       </c>
       <c r="R48" t="s" s="2">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="S48" t="s" s="2">
         <v>42</v>
@@ -6929,11 +6926,11 @@
         <v>109</v>
       </c>
       <c r="X48" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="Y48" t="s" s="2">
         <v>273</v>
       </c>
-      <c r="Y48" t="s" s="2">
-        <v>274</v>
-      </c>
       <c r="Z48" t="s" s="2">
         <v>42</v>
       </c>
@@ -6950,7 +6947,7 @@
         <v>42</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>51</v>
@@ -6985,7 +6982,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7011,16 +7008,16 @@
         <v>53</v>
       </c>
       <c r="K49" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="L49" t="s" s="2">
         <v>276</v>
       </c>
-      <c r="L49" t="s" s="2">
-        <v>277</v>
-      </c>
       <c r="M49" t="s" s="2">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="O49" t="s" s="2">
         <v>42</v>
@@ -7069,7 +7066,7 @@
         <v>42</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>51</v>
@@ -7093,18 +7090,18 @@
         <v>42</v>
       </c>
       <c r="AM49" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="AN49" t="s" s="2">
         <v>280</v>
       </c>
-      <c r="AN49" t="s" s="2">
+      <c r="AO49" t="s" s="2">
         <v>281</v>
-      </c>
-      <c r="AO49" t="s" s="2">
-        <v>282</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7130,16 +7127,16 @@
         <v>53</v>
       </c>
       <c r="K50" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="L50" t="s" s="2">
         <v>284</v>
       </c>
-      <c r="L50" t="s" s="2">
+      <c r="M50" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="N50" t="s" s="2">
         <v>285</v>
-      </c>
-      <c r="M50" t="s" s="2">
-        <v>294</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>286</v>
       </c>
       <c r="O50" t="s" s="2">
         <v>42</v>
@@ -7188,7 +7185,7 @@
         <v>42</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>43</v>
@@ -7212,18 +7209,18 @@
         <v>42</v>
       </c>
       <c r="AM50" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="AN50" t="s" s="2">
         <v>280</v>
       </c>
-      <c r="AN50" t="s" s="2">
+      <c r="AO50" t="s" s="2">
         <v>281</v>
-      </c>
-      <c r="AO50" t="s" s="2">
-        <v>282</v>
       </c>
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7246,17 +7243,17 @@
         <v>52</v>
       </c>
       <c r="J51" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="K51" t="s" s="2">
         <v>296</v>
       </c>
-      <c r="K51" t="s" s="2">
+      <c r="L51" t="s" s="2">
         <v>297</v>
-      </c>
-      <c r="L51" t="s" s="2">
-        <v>298</v>
       </c>
       <c r="M51" s="2"/>
       <c r="N51" t="s" s="2">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="O51" t="s" s="2">
         <v>42</v>
@@ -7305,7 +7302,7 @@
         <v>42</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>43</v>
@@ -7340,7 +7337,7 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7366,14 +7363,14 @@
         <v>53</v>
       </c>
       <c r="K52" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="L52" t="s" s="2">
         <v>301</v>
-      </c>
-      <c r="L52" t="s" s="2">
-        <v>302</v>
       </c>
       <c r="M52" s="2"/>
       <c r="N52" t="s" s="2">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="O52" t="s" s="2">
         <v>42</v>
@@ -7422,7 +7419,7 @@
         <v>42</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>43</v>
@@ -7446,7 +7443,7 @@
         <v>42</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>42</v>
@@ -7457,11 +7454,11 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
@@ -7480,19 +7477,19 @@
         <v>42</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="K53" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="L53" t="s" s="2">
         <v>307</v>
       </c>
-      <c r="L53" t="s" s="2">
+      <c r="M53" t="s" s="2">
         <v>308</v>
       </c>
-      <c r="M53" t="s" s="2">
+      <c r="N53" t="s" s="2">
         <v>309</v>
-      </c>
-      <c r="N53" t="s" s="2">
-        <v>310</v>
       </c>
       <c r="O53" t="s" s="2">
         <v>42</v>
@@ -7541,7 +7538,7 @@
         <v>42</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>43</v>
@@ -7576,7 +7573,7 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7691,7 +7688,7 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -7808,11 +7805,11 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
@@ -7834,10 +7831,10 @@
         <v>71</v>
       </c>
       <c r="K56" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="L56" t="s" s="2">
         <v>266</v>
-      </c>
-      <c r="L56" t="s" s="2">
-        <v>267</v>
       </c>
       <c r="M56" t="s" s="2">
         <v>74</v>
@@ -7892,7 +7889,7 @@
         <v>42</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>43</v>
@@ -7927,7 +7924,7 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -7953,16 +7950,16 @@
         <v>183</v>
       </c>
       <c r="K57" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="L57" t="s" s="2">
         <v>315</v>
       </c>
-      <c r="L57" t="s" s="2">
+      <c r="M57" t="s" s="2">
         <v>316</v>
       </c>
-      <c r="M57" t="s" s="2">
+      <c r="N57" t="s" s="2">
         <v>317</v>
-      </c>
-      <c r="N57" t="s" s="2">
-        <v>318</v>
       </c>
       <c r="O57" t="s" s="2">
         <v>42</v>
@@ -7990,11 +7987,11 @@
         <v>109</v>
       </c>
       <c r="X57" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="Y57" t="s" s="2">
         <v>319</v>
       </c>
-      <c r="Y57" t="s" s="2">
-        <v>320</v>
-      </c>
       <c r="Z57" t="s" s="2">
         <v>42</v>
       </c>
@@ -8011,7 +8008,7 @@
         <v>42</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>43</v>
@@ -8046,7 +8043,7 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8069,19 +8066,19 @@
         <v>52</v>
       </c>
       <c r="J58" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="K58" t="s" s="2">
         <v>322</v>
       </c>
-      <c r="K58" t="s" s="2">
+      <c r="L58" t="s" s="2">
         <v>323</v>
       </c>
-      <c r="L58" t="s" s="2">
+      <c r="M58" t="s" s="2">
         <v>324</v>
       </c>
-      <c r="M58" t="s" s="2">
+      <c r="N58" t="s" s="2">
         <v>325</v>
-      </c>
-      <c r="N58" t="s" s="2">
-        <v>326</v>
       </c>
       <c r="O58" t="s" s="2">
         <v>42</v>
@@ -8130,7 +8127,7 @@
         <v>42</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>51</v>
@@ -8154,18 +8151,18 @@
         <v>42</v>
       </c>
       <c r="AM58" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="AN58" t="s" s="2">
         <v>280</v>
       </c>
-      <c r="AN58" t="s" s="2">
+      <c r="AO58" t="s" s="2">
         <v>281</v>
-      </c>
-      <c r="AO58" t="s" s="2">
-        <v>282</v>
       </c>
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8188,17 +8185,17 @@
         <v>42</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="K59" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="L59" t="s" s="2">
         <v>328</v>
-      </c>
-      <c r="L59" t="s" s="2">
-        <v>329</v>
       </c>
       <c r="M59" s="2"/>
       <c r="N59" t="s" s="2">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="O59" t="s" s="2">
         <v>42</v>
@@ -8247,7 +8244,7 @@
         <v>42</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>43</v>
@@ -8282,7 +8279,7 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8397,7 +8394,7 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8514,11 +8511,11 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
@@ -8540,10 +8537,10 @@
         <v>71</v>
       </c>
       <c r="K62" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="L62" t="s" s="2">
         <v>266</v>
-      </c>
-      <c r="L62" t="s" s="2">
-        <v>267</v>
       </c>
       <c r="M62" t="s" s="2">
         <v>74</v>
@@ -8598,7 +8595,7 @@
         <v>42</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>43</v>
@@ -8633,7 +8630,7 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -8659,14 +8656,14 @@
         <v>183</v>
       </c>
       <c r="K63" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="L63" t="s" s="2">
         <v>334</v>
-      </c>
-      <c r="L63" t="s" s="2">
-        <v>335</v>
       </c>
       <c r="M63" s="2"/>
       <c r="N63" t="s" s="2">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="O63" t="s" s="2">
         <v>42</v>
@@ -8694,11 +8691,11 @@
         <v>117</v>
       </c>
       <c r="X63" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="Y63" t="s" s="2">
         <v>337</v>
       </c>
-      <c r="Y63" t="s" s="2">
-        <v>338</v>
-      </c>
       <c r="Z63" t="s" s="2">
         <v>42</v>
       </c>
@@ -8715,7 +8712,7 @@
         <v>42</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>51</v>
@@ -8750,7 +8747,7 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -8776,14 +8773,14 @@
         <v>234</v>
       </c>
       <c r="K64" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="L64" t="s" s="2">
         <v>340</v>
-      </c>
-      <c r="L64" t="s" s="2">
-        <v>341</v>
       </c>
       <c r="M64" s="2"/>
       <c r="N64" t="s" s="2">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="O64" t="s" s="2">
         <v>42</v>
@@ -8832,7 +8829,7 @@
         <v>42</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>43</v>
@@ -8867,7 +8864,7 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -8890,19 +8887,19 @@
         <v>42</v>
       </c>
       <c r="J65" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="K65" t="s" s="2">
         <v>344</v>
       </c>
-      <c r="K65" t="s" s="2">
+      <c r="L65" t="s" s="2">
         <v>345</v>
       </c>
-      <c r="L65" t="s" s="2">
+      <c r="M65" t="s" s="2">
         <v>346</v>
       </c>
-      <c r="M65" t="s" s="2">
+      <c r="N65" t="s" s="2">
         <v>347</v>
-      </c>
-      <c r="N65" t="s" s="2">
-        <v>348</v>
       </c>
       <c r="O65" t="s" s="2">
         <v>42</v>
@@ -8951,7 +8948,7 @@
         <v>42</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>43</v>
@@ -8986,7 +8983,7 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9009,17 +9006,17 @@
         <v>42</v>
       </c>
       <c r="J66" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="K66" t="s" s="2">
         <v>350</v>
       </c>
-      <c r="K66" t="s" s="2">
+      <c r="L66" t="s" s="2">
         <v>351</v>
-      </c>
-      <c r="L66" t="s" s="2">
-        <v>352</v>
       </c>
       <c r="M66" s="2"/>
       <c r="N66" t="s" s="2">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="O66" t="s" s="2">
         <v>42</v>
@@ -9068,7 +9065,7 @@
         <v>42</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>43</v>
@@ -9095,7 +9092,7 @@
         <v>199</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="AO66" t="s" s="2">
         <v>201</v>
